--- a/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
@@ -11,14 +11,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -423,9 +423,6 @@
     <t>Refuerza tu aprendizaje: Las Ciencias Naturales y la medicina</t>
   </si>
   <si>
-    <t>Actividades sobre las Ciencias Naturales y la medicina</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Las enfermedades infecciosas</t>
   </si>
   <si>
-    <t>Interactivo sobre los causantes, la transmisión, el contagio, la prevención y el tratamiento de las enfermedades infecciosas</t>
-  </si>
-  <si>
     <t>3C</t>
   </si>
   <si>
@@ -468,36 +462,21 @@
     <t>La teoría microbiana contra la hipótesis de los humores</t>
   </si>
   <si>
-    <t>Actividad términos propios de la teoría microbiana de la enfermedad y la creencia de los cuatro humores corporales</t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
     <t>Las enfermedades hereditarias</t>
   </si>
   <si>
-    <t>Ejercicio de arrastrar etiquetas para completar un texto sobre las enfermedades hereditarias</t>
-  </si>
-  <si>
     <t>Recurso M2A-01</t>
   </si>
   <si>
-    <t>Competencias: Los cromosomas y el síndrome de Down</t>
-  </si>
-  <si>
-    <t>Investigación con imágenes y preguntas sobre la relación que existe entre los cromosomas y el síndrome de Down</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La biología y la medicina</t>
   </si>
   <si>
-    <t>Actividades sobre La biología y la medicina</t>
-  </si>
-  <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
@@ -510,9 +489,6 @@
     <t>¿Qué son y cómo actúan los analgésicos?</t>
   </si>
   <si>
-    <t>Actividad con textos y preguntas sobre sobre qué son y cómo actúan los analgésicos</t>
-  </si>
-  <si>
     <t>Recurso M5D-01</t>
   </si>
   <si>
@@ -522,9 +498,6 @@
     <t>¿Cómo se hace un test químico?</t>
   </si>
   <si>
-    <t>Ejercicio en el que se ordenan frases relacionadas con el proceso de elaboración de un test químico</t>
-  </si>
-  <si>
     <t>Recurso M12A-01</t>
   </si>
   <si>
@@ -534,9 +507,6 @@
     <t>Carencias y excesos de yodo y cloro</t>
   </si>
   <si>
-    <t>Interactivo con texto e imágenes  sobre los efectos en el cuerpo humano de la carencia y el exceso de yodo y cloro</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -546,9 +516,6 @@
     <t>Refuerza tu aprendizaje: La química y la medicina</t>
   </si>
   <si>
-    <t>Actividades sobre La química y la medicina</t>
-  </si>
-  <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
@@ -564,39 +531,21 @@
     <t>El uso de las ondas en el diagnóstico médico</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo que ilustra el uso de ondas electromagnéticas y sonoras en el diagnóstico médico </t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
     <t>La física en la prevención de enfermedades</t>
   </si>
   <si>
-    <t>Competencias: Otros ejemplos de aportes hechos por la Física a la Medicina</t>
-  </si>
-  <si>
-    <t>Actividad en la que se piden otros ejemplos de aportes hechos por la Física a la Medicina</t>
-  </si>
-  <si>
     <t>Recurso M102AB-02</t>
   </si>
   <si>
-    <t>Aplicación de técnicas de la Física a la Medicina</t>
-  </si>
-  <si>
-    <t>Ejercicio en el que se relacionan situaciones médicas específicas con la utilización de una técnica preventiva, de tratamiento o diagnóstica proveniente de la Física</t>
-  </si>
-  <si>
     <t>Recurso M1C-01</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: La física y la medicina</t>
   </si>
   <si>
-    <t>Actividades sobre La física y la medicina</t>
-  </si>
-  <si>
     <t>Recurso M101A-04</t>
   </si>
   <si>
@@ -612,87 +561,36 @@
     <t>Astronomía y medicina</t>
   </si>
   <si>
-    <t>Geología, Astronomía y Medicina</t>
-  </si>
-  <si>
-    <t>Preguntas de selección múltiple sobre la relación de la geología y la astronomía con la medicina</t>
-  </si>
-  <si>
     <t>Recurso M4A-01</t>
   </si>
   <si>
     <t>La colaboración de las ciencias para el avance de la medicina</t>
   </si>
   <si>
-    <t>Competencias: ¿Contra qué enfermedades te deben vacunar y a qué edades?</t>
-  </si>
-  <si>
-    <t>Ejercicio basado en un texto sobre las enfermedades que requieren vacunación y las edades a las que esta se debe hacer</t>
-  </si>
-  <si>
     <t>¿Por qué es necesario desarrollar nuevos antibióticos?</t>
   </si>
   <si>
-    <t>Interactivo que explica la necesidad de desarrollar nuevos antibióticos, debido a la resistencia que adquieren las poblaciones microbianas por el mal uso de esos antibióticos.</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La medicina y su trabajo en equipo con otras Ciencias Naturales</t>
-  </si>
-  <si>
-    <t>Actividades sobre La medicina y su trabajo en equipo con otras Ciencias Naturales</t>
-  </si>
-  <si>
     <t>Recurso M101A-05</t>
   </si>
   <si>
-    <t>Competencias: Obtención de un hidrolato de eucalipto</t>
-  </si>
-  <si>
-    <t>Experiencia práctica en la que se dan las instrucciones para la obtención de un hidrolato de eucalipto</t>
-  </si>
-  <si>
     <t>Recurso F13B-01</t>
   </si>
   <si>
-    <t>Competencias: Elaboración de un fonendoscopio casero</t>
-  </si>
-  <si>
-    <t>Experiencia práctica en la que se dan instrucciones para la elaboración de un fonendoscopio (estetoscopio) casero</t>
-  </si>
-  <si>
     <t>Recurso F13B-02</t>
   </si>
   <si>
-    <t>La endoscopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigación sobre la endoscopia y sus beneficios </t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
     <t>Fin de unidad</t>
   </si>
   <si>
-    <t>Mapa conceptual sobre la ciencia y la tecnología al servicio de la medicina</t>
-  </si>
-  <si>
-    <t>Autoevaluación</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema La ciencia y la tecnología al servicio de la medicina</t>
-  </si>
-  <si>
     <t>Recurso M4A-02</t>
   </si>
   <si>
     <t>Banco de actividades: Ciencia y tecnología al servicio de la medicina</t>
   </si>
   <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema Ciencia y tecnología al servicio de la medicina</t>
-  </si>
-  <si>
     <t>Recurso F6B-01</t>
   </si>
   <si>
@@ -714,9 +612,6 @@
     <t>Las ciencias naturales y la medicina</t>
   </si>
   <si>
-    <t>Interactivo que permite relacionar las ciencias naturales con la medicina</t>
-  </si>
-  <si>
     <t>Recursos M aleatorios y diaporama F1</t>
   </si>
   <si>
@@ -724,6 +619,111 @@
   </si>
   <si>
     <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que permite conocer las propiedades de algunas plantas medicinales</t>
+  </si>
+  <si>
+    <t>Interactivo que permite comprender las características de las enfermedades infecciosas</t>
+  </si>
+  <si>
+    <t>Interactivo para contrastar la teoría microbiana de la enfermedad con la creencia de los cuatro humores corporales</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar conceptos sobre las Ciencias Naturales y la medicina</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la relación entre la biología y la medicina</t>
+  </si>
+  <si>
+    <t>Interactivo para comprender qué son y cómo actúan los analgésicos</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer la relación entre la química y la medicina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que permite comparar la utilidad de las ondas electromagnéticas y sonoras en el diagnóstico médico </t>
+  </si>
+  <si>
+    <t>Actividad para explorar otros aportes hechos por la física a la medicina</t>
+  </si>
+  <si>
+    <t>Actividad para relacionar situaciones médicas con la utilización de técnicas provenientes de la física</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer aplicaciones de la física a la medicina</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reconocer la relación de la geología y la astronomía con la medicina</t>
+  </si>
+  <si>
+    <t>Actividad que permite explorar sobre las enfermedades que requieren vacunación y las edades a las que se deben hacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para comprender la necesidad de desarrollar nuevos antibióticos, debido a la resistencia de los microorganismos </t>
+  </si>
+  <si>
+    <t>Actividad para reconocer el trabajo en equipo de la medicina con las Ciencias Naturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para explorar sobre la endoscopia y sus beneficios </t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema  Ciencia y tecnología al servicio de la medicina</t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre Ciencia y tecnología al servicio de la medicina</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema Ciencia y tecnología al servicio de la medicina</t>
+  </si>
+  <si>
+    <t>Aplicación de técnicas de la física a la medicina</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Actividad para identificar el síndrome de Down con base en la interpretación de cariotipos</t>
+  </si>
+  <si>
+    <t>Interactivo que permite reconocer algunas características de las  enfermedades hereditarias</t>
+  </si>
+  <si>
+    <t>Competencias: obtención de un hidrolato de eucalipto</t>
+  </si>
+  <si>
+    <t>Competencias: elaboración de un fonendoscopio casero</t>
+  </si>
+  <si>
+    <t>Competencias: estudio de otros aportes hechos por la física a la medicina</t>
+  </si>
+  <si>
+    <t>Competencias: análisis del cuadro de vacunación</t>
+  </si>
+  <si>
+    <t>Competencias: identificación del síndrome de Down en el cariotipo</t>
+  </si>
+  <si>
+    <t>Competencias: estudio de la endoscopia</t>
+  </si>
+  <si>
+    <t>Interactivo para identificar los efectos en el cuerpo humano de las carencias y  excesos de yodo y cloro</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes que permite identificar el trabajo integrado de las ciencias naturales para  la medicina</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la medicina y su trabajo en equipo con las Ciencias Naturales</t>
+  </si>
+  <si>
+    <t>Actividad en la que se plantea una experiencia práctica para la obtención de un hidrolato de eucalipto</t>
+  </si>
+  <si>
+    <t>Actividad para el desarrollo de destrezas manuales y la aplicación de conocimientos, a través de la elaboración de un fonendoscopio casero</t>
+  </si>
+  <si>
+    <t>Interactivo para ordenar los pasos en el proceso de elaboración de un test químico</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1031,6 +1031,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,11 +1341,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1361,7 @@
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="111.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
@@ -1486,7 +1490,7 @@
       <c r="U3" s="27"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -1498,25 +1502,25 @@
       <c r="D4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1600,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1620,16 +1624,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="U6" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1646,11 +1650,11 @@
         <v>126</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="9">
         <v>3</v>
@@ -1659,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1679,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>131</v>
@@ -1705,13 +1709,13 @@
         <v>126</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="H8" s="9">
         <v>4</v>
@@ -1720,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1737,19 +1741,19 @@
         <v>19</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="T8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1766,13 +1770,13 @@
         <v>126</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H9" s="9">
         <v>5</v>
@@ -1781,13 +1785,13 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
@@ -1801,16 +1805,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T9" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1827,13 +1831,13 @@
         <v>126</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H10" s="9">
         <v>6</v>
@@ -1842,13 +1846,13 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8" t="s">
@@ -1862,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,13 +1892,11 @@
         <v>126</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="H11" s="9">
         <v>7</v>
@@ -1903,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -1913,7 +1915,7 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9" t="s">
@@ -1923,16 +1925,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T11" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1946,34 +1948,32 @@
         <v>124</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="H12" s="9">
         <v>8</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="8"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -1982,16 +1982,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2005,25 +2005,53 @@
         <v>124</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="10"/>
+      <c r="P13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>6</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2036,32 +2064,34 @@
         <v>124</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="H14" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9" t="s">
         <v>19</v>
@@ -2070,16 +2100,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2093,23 +2123,23 @@
         <v>124</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>161</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2117,28 +2147,28 @@
       <c r="L15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="M15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="10">
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,33 +2182,33 @@
         <v>124</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H16" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
@@ -2188,16 +2218,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T16" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2211,23 +2241,23 @@
         <v>124</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2236,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
@@ -2247,13 +2277,13 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>131</v>
@@ -2270,23 +2300,23 @@
         <v>124</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="H18" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2296,7 +2326,7 @@
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9" t="s">
@@ -2306,16 +2336,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2329,25 +2359,53 @@
         <v>124</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>166</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
+      <c r="G19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="9">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="10"/>
+      <c r="P19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>6</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2360,27 +2418,55 @@
         <v>124</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
+      <c r="G20" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="9">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="10"/>
+      <c r="P20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>6</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2393,34 +2479,36 @@
         <v>124</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H21" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9" t="s">
         <v>19</v>
@@ -2429,16 +2517,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2452,52 +2540,52 @@
         <v>124</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H22" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
-        <v>120</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="10">
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2511,33 +2599,33 @@
         <v>124</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="H23" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
@@ -2547,16 +2635,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T23" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2570,23 +2658,21 @@
         <v>124</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="H24" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2596,7 +2682,7 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9" t="s">
@@ -2606,16 +2692,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S24" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T24" s="12" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2629,25 +2715,51 @@
         <v>124</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="N25" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="10"/>
+      <c r="P25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>6</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2660,27 +2772,51 @@
         <v>124</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>194</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="9">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="10"/>
+      <c r="P26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>6</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -2693,32 +2829,30 @@
         <v>124</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H27" s="9">
-        <v>18</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
@@ -2729,16 +2863,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2752,36 +2886,32 @@
         <v>124</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="H28" s="9">
+        <v>24</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J28" s="17" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
-        <v>32</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28" s="8"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9" t="s">
         <v>19</v>
@@ -2790,16 +2920,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2813,23 +2943,21 @@
         <v>124</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>200</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H29" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -2849,16 +2977,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S29" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T29" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2872,53 +3000,37 @@
         <v>124</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>200</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H30" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="10">
-        <v>6</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="10"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -2931,23 +3043,21 @@
         <v>124</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>132</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H31" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -2957,7 +3067,7 @@
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9" t="s">
@@ -2967,74 +3077,56 @@
         <v>6</v>
       </c>
       <c r="R31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S31" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S31" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="T31" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>216</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H32" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>6</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>131</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="10"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -3047,51 +3139,25 @@
         <v>124</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H33" s="9">
-        <v>24</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>6</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="10"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3104,51 +3170,25 @@
         <v>124</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="9">
-        <v>25</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>6</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S34" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="10"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -3161,32 +3201,20 @@
         <v>124</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="9">
-        <v>26</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="6"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="P35" s="9"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="11"/>
       <c r="S35" s="10"/>
@@ -3204,85 +3232,53 @@
         <v>124</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="13"/>
+        <v>166</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H36" s="9">
-        <v>27</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>6</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="H37" s="9">
-        <v>28</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="N37" s="8"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="P37" s="9"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="11"/>
       <c r="S37" s="10"/>
@@ -3290,11 +3286,21 @@
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="16"/>
       <c r="H38" s="9"/>
@@ -4048,373 +4054,399 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" spans="1:21" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="123" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="125" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="126" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="128" spans="1:1" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="129" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="130" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="131" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="132" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="133" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="134" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="135" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="136" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="137" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="138" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="139" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="140" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="141" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="142" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="143" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="144" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="145" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="146" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="147" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="148" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="149" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="150" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="151" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="152" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="153" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="154" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="155" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="156" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="157" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="158" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="159" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="160" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="161" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="162" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="163" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="164" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="165" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="166" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="167" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="168" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="169" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="170" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="171" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="172" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="173" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="174" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="175" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="176" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="177" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="178" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="179" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="180" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="181" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="182" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="183" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="184" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="185" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="186" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="187" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="188" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="189" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="190" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="191" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="192" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="193" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="194" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="195" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="196" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="197" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="198" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="199" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="200" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="201" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="202" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="203" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="204" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="205" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="206" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="208" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="209" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="210" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="211" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="212" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="213" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="214" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="215" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="216" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="217" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="218" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="219" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="220" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="221" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="222" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="223" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="224" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="225" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="226" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="227" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="228" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="229" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="230" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="231" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="232" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="233" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="234" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="235" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="236" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="237" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="238" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="239" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="240" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="241" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="242" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="243" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="244" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="245" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="246" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="247" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="248" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="249" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="250" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="251" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="252" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="253" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="254" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="255" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="256" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="257" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="258" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="259" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="260" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="261" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="262" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="263" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="264" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="265" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="266" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="267" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="268" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="269" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="270" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="271" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="272" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="273" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="274" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="275" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="276" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="277" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="278" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="279" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="280" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="281" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="282" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="283" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="284" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U34">
+  <autoFilter ref="A1:U35">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="12" showButton="0"/>
+    <sortState ref="A4:U37">
+      <sortCondition ref="H1:H34"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
@@ -4447,31 +4479,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N70</xm:sqref>
+          <xm:sqref>N3:N71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A70</xm:sqref>
+          <xm:sqref>A3:A71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K70 P3:P70 I3:I70</xm:sqref>
+          <xm:sqref>I3:I71 P3:P71 K3:K71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L70</xm:sqref>
+          <xm:sqref>L3:L71</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M70</xm:sqref>
+          <xm:sqref>M3:M71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5022,7 +5054,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5037,7 +5069,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -5052,7 +5084,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -5067,7 +5099,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5082,7 +5114,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -5097,7 +5129,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -5112,7 +5144,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -5127,7 +5159,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -5142,7 +5174,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -5157,7 +5189,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -5172,7 +5204,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.95" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>

--- a/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -438,9 +443,6 @@
     <t>Los descubrimientos biológicos que cambiaron para siempre la medicina</t>
   </si>
   <si>
-    <t xml:space="preserve">Las sanguijuelas en la medicina actual </t>
-  </si>
-  <si>
     <t>El descubrimiento de los microbios y su relación con las enfermedades</t>
   </si>
   <si>
@@ -724,6 +726,9 @@
   </si>
   <si>
     <t>Interactivo para ordenar los pasos en el proceso de elaboración de un test químico</t>
+  </si>
+  <si>
+    <t>¿Qué son las sanguijuelas?</t>
   </si>
 </sst>
 </file>
@@ -963,34 +968,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,9 +1023,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1131,7 +1136,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,9 +1348,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,94 +1378,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="30" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="31" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="38"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
@@ -1545,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1604,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1654,16 +1659,16 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="H7" s="9">
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1683,13 +1688,13 @@
         <v>6</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U7" s="10" t="s">
         <v>131</v>
@@ -1712,10 +1717,10 @@
         <v>138</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>141</v>
       </c>
       <c r="H8" s="9">
         <v>4</v>
@@ -1724,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
@@ -1741,19 +1746,19 @@
         <v>19</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="T8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1773,10 +1778,10 @@
         <v>138</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="9">
         <v>5</v>
@@ -1785,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1811,7 +1816,7 @@
         <v>135</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>137</v>
@@ -1834,10 +1839,10 @@
         <v>138</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="9">
         <v>6</v>
@@ -1846,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1872,7 +1877,7 @@
         <v>135</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>137</v>
@@ -1896,7 +1901,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="9">
         <v>7</v>
@@ -1905,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -1931,7 +1936,7 @@
         <v>135</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U11" s="10" t="s">
         <v>137</v>
@@ -1948,12 +1953,12 @@
         <v>124</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="9">
         <v>8</v>
@@ -1962,7 +1967,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -1982,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>131</v>
@@ -2005,14 +2010,14 @@
         <v>124</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="9">
         <v>9</v>
@@ -2021,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2047,7 +2052,7 @@
         <v>135</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>137</v>
@@ -2064,14 +2069,14 @@
         <v>124</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="9">
         <v>10</v>
@@ -2080,7 +2085,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2106,7 +2111,7 @@
         <v>135</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>137</v>
@@ -2123,14 +2128,14 @@
         <v>124</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" s="9">
         <v>11</v>
@@ -2139,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -2159,13 +2164,13 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S15" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>131</v>
@@ -2182,14 +2187,14 @@
         <v>124</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H16" s="9">
         <v>12</v>
@@ -2198,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>20</v>
@@ -2224,7 +2229,7 @@
         <v>135</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U16" s="10" t="s">
         <v>137</v>
@@ -2241,14 +2246,14 @@
         <v>124</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="9">
         <v>13</v>
@@ -2257,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2277,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U17" s="10" t="s">
         <v>131</v>
@@ -2300,14 +2305,14 @@
         <v>124</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H18" s="9">
         <v>14</v>
@@ -2316,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2342,7 +2347,7 @@
         <v>135</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U18" s="10" t="s">
         <v>137</v>
@@ -2359,14 +2364,14 @@
         <v>124</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H19" s="9">
         <v>15</v>
@@ -2375,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2401,7 +2406,7 @@
         <v>135</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U19" s="10" t="s">
         <v>137</v>
@@ -2418,25 +2423,25 @@
         <v>124</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>178</v>
-      </c>
       <c r="G20" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H20" s="9">
         <v>16</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2459,13 +2464,13 @@
         <v>134</v>
       </c>
       <c r="S20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="T20" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="U20" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2479,16 +2484,16 @@
         <v>124</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="F21" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="9">
         <v>17</v>
@@ -2497,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -2523,7 +2528,7 @@
         <v>135</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U21" s="10" t="s">
         <v>137</v>
@@ -2540,14 +2545,14 @@
         <v>124</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="9">
         <v>18</v>
@@ -2556,7 +2561,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -2576,13 +2581,13 @@
         <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>131</v>
@@ -2599,14 +2604,14 @@
         <v>124</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H23" s="9">
         <v>19</v>
@@ -2615,7 +2620,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2641,7 +2646,7 @@
         <v>135</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>137</v>
@@ -2658,12 +2663,12 @@
         <v>124</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="9">
         <v>20</v>
@@ -2672,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2698,7 +2703,7 @@
         <v>135</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U24" s="10" t="s">
         <v>137</v>
@@ -2715,12 +2720,12 @@
         <v>124</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H25" s="9">
         <v>21</v>
@@ -2729,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2755,7 +2760,7 @@
         <v>135</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U25" s="10" t="s">
         <v>137</v>
@@ -2772,12 +2777,12 @@
         <v>124</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26" s="9">
         <v>22</v>
@@ -2786,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2812,7 +2817,7 @@
         <v>135</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U26" s="10" t="s">
         <v>137</v>
@@ -2829,12 +2834,12 @@
         <v>124</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="9">
         <v>23</v>
@@ -2843,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -2863,13 +2868,13 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U27" s="10" t="s">
         <v>131</v>
@@ -2886,12 +2891,12 @@
         <v>124</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" s="9">
         <v>24</v>
@@ -2900,7 +2905,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -2920,13 +2925,13 @@
         <v>6</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>129</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U28" s="10" t="s">
         <v>131</v>
@@ -2943,12 +2948,12 @@
         <v>124</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H29" s="9">
         <v>25</v>
@@ -2957,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
@@ -2983,7 +2988,7 @@
         <v>135</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>137</v>
@@ -3000,7 +3005,7 @@
         <v>124</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
@@ -3014,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
@@ -3043,12 +3048,12 @@
         <v>124</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H31" s="9">
         <v>27</v>
@@ -3057,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>20</v>
@@ -3083,7 +3088,7 @@
         <v>135</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U31" s="10" t="s">
         <v>137</v>
@@ -3091,13 +3096,13 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="58"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="9">
         <v>28</v>
@@ -3106,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3170,7 +3175,7 @@
         <v>124</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
@@ -3201,7 +3206,7 @@
         <v>124</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
@@ -3232,10 +3237,10 @@
         <v>124</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="16"/>
@@ -3265,7 +3270,7 @@
         <v>124</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
@@ -3289,17 +3294,17 @@
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="16"/>
@@ -4449,6 +4454,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4463,12 +4474,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion13/Escaleta_CN_07_13_CO.xlsx
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
